--- a/ExcelConfig/资源生产表.xlsx
+++ b/ExcelConfig/资源生产表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,13 @@
   <si>
     <t>提炼下就是原料</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿</t>
   </si>
 </sst>
 </file>
@@ -609,13 +616,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -626,10 +633,11 @@
     <col min="4" max="4" width="19.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -649,7 +657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -689,7 +697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -706,7 +714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -723,7 +731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -739,8 +747,17 @@
       <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H6" s="2">
+        <v>101</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -756,8 +773,17 @@
       <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H7" s="2">
+        <v>102</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -773,8 +799,17 @@
       <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H8" s="2">
+        <v>103</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -790,8 +825,17 @@
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <v>104</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -806,6 +850,15 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="H10" s="2">
+        <v>105</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/资源生产表.xlsx
+++ b/ExcelConfig/资源生产表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="255" yWindow="1620" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,39 +63,204 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CostItems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单位消耗资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位收获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定的，每个生产条目单位消耗所占用人力成本，即农夫数为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锰铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨铁</t>
+  </si>
+  <si>
+    <t>钨钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑檀木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶檀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天杉木</t>
+  </si>
+  <si>
+    <t>蛮皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绒面革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绢布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕丝布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水绫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砥石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑墨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>26:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位消耗资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardItems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位收获</t>
+    <t>2:7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,43 +268,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磨坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初级铁匠铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:3</t>
+    <t>6:4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,11 +280,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中级铁匠铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:5</t>
+    <t>7:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,54 +288,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖出来的就是金子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍伐森林是一切原始活动的动力来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开个地，种个麦子什么的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦子做好了就是干粮啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖出来的就是武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提炼下就是原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磨坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金矿</t>
+    <t>8:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1\n产出：【小麦】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【小麦】-2\n产出：【干粮】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【生铁】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【生铁】-3\n产出：【灰钢】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【灰钢】-3\n产出：【锰铜】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【生铁】-12\n产出：【陨铁】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【灰钢】-7\n产出：【钨钢】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【圆木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【圆木】-4\n产出：【柳木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【柳木】-2\n产出：【黑檀木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑檀木】-2\n产出：【阔叶檀】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑檀木】-3\n产出：【天杉木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【蛮皮】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【蛮皮】-2\n产出：【兽皮】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【兽皮】-4\n产出：【轻革】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【兽皮】-6\n产出：【重革】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【重革】-2\n产出：【绒面革】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【青麻】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【青麻】-3\n产出：【绢布】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【绢布】-2\n产出：【丝绸】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【丝绸】-3\n产出：【蚕丝布】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【丝绸】-4\n产出：【秀水绫】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【砥石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【砥石】-3\n产出：【玄铁石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【玄铁石】-3\n产出：【黑墨石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑墨石】-2\n产出：【夏目石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑墨石】-3\n产出：【孔雀石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,16 +564,51 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,18 +616,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -293,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -335,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,16 +958,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,28 +989,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="51.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -647,17 +1020,17 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -667,17 +1040,17 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -687,183 +1060,497 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2">
-        <v>101</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2">
-        <v>102</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="2">
-        <v>103</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="D27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2">
-        <v>104</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2">
-        <v>105</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>46</v>
+      <c r="D30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/资源生产表.xlsx
+++ b/ExcelConfig/资源生产表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="1620" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,10 +992,10 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B30"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/ExcelConfig/资源生产表.xlsx
+++ b/ExcelConfig/资源生产表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1620" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="6555" yWindow="-270" windowWidth="18600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="ResourcesProduceConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,15 +67,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位消耗资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardItems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位收获</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干粮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑檀木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阔叶檀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天杉木</t>
   </si>
   <si>
@@ -205,14 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玄铁石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑墨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏目石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,198 +192,6 @@
     <t>孔雀石</t>
   </si>
   <si>
-    <t>26:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗：【农夫】-1\n产出：【小麦】+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,62 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗：【农夫】-1，【干粮】-2\n产出：【生铁】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【生铁】-3\n产出：【灰钢】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【灰钢】-3\n产出：【锰铜】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【生铁】-12\n产出：【陨铁】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【灰钢】-7\n产出：【钨钢】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-2\n产出：【圆木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【圆木】-4\n产出：【柳木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【柳木】-2\n产出：【黑檀木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【黑檀木】-2\n产出：【阔叶檀】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【黑檀木】-3\n产出：【天杉木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-2\n产出：【蛮皮】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【蛮皮】-2\n产出：【兽皮】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【兽皮】-4\n产出：【轻革】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【兽皮】-6\n产出：【重革】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗：【农夫】-1，【重革】-2\n产出：【绒面革】+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗：【农夫】-1，【青麻】-3\n产出：【绢布】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗：【农夫】-1，【绢布】-2\n产出：【丝绸】+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,24 +220,205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗：【农夫】-1，【干粮】-2\n产出：【砥石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【砥石】-3\n产出：【玄铁石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【玄铁石】-3\n产出：【黑墨石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【黑墨石】-2\n产出：【夏目石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【黑墨石】-3\n产出：【孔雀石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>樟木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-5\n产出：【生铁】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【生铁】-3\n产出：【灰钢】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【灰钢】-2\n产出：【锰铜】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【生铁】-6\n产出：【陨铁】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【灰钢】-5\n产出：【钨钢】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-3\n产出：【圆木】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【圆木】-3\n产出：【柳木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-5\n产出：【蛮皮】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【蛮皮】-3\n产出：【兽皮】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【兽皮】-2\n产出：【轻革】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【兽皮】-3\n产出：【重革】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【青麻】-2\n产出：【绢布】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-4\n产出：【砥石】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【柳木】-5\n产出：【樟木】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【圆木】-12\n产出：【天杉木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【柳木】-8\n产出：【祥龙木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【砥石】-3\n产出：【藏魂石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑晶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【藏魂石】-2\n产出：【黑晶3石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑晶石】-3\n产出：【夏目石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑晶石】-4\n产出：【孔雀石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗资源量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获资源量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -594,7 +495,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -639,15 +546,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -666,7 +577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,7 +619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,7 +866,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,13 +900,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1003,14 +914,16 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="51.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1023,14 +936,20 @@
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1043,14 +962,20 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,488 +986,654 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="F9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13">
+        <v>71</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="13">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
+      <c r="C26" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>43</v>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>44</v>
+      <c r="C28" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>45</v>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>46</v>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>121</v>
+      <c r="E30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1550,8 +1641,8 @@
     <mergeCell ref="A5:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/资源生产表.xlsx
+++ b/ExcelConfig/资源生产表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="-270" windowWidth="18600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="1425" yWindow="-105" windowWidth="18255" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陨铁</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1\n产出：【小麦】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【小麦】-2\n产出：【干粮】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【重革】-2\n产出：【绒面革】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【青麻】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【绢布】-2\n产出：【丝绸】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【丝绸】-3\n产出：【蚕丝布】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【丝绸】-4\n产出：【秀水绫】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【生铁】-3\n产出：【灰钢】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【灰钢】-2\n产出：【锰铜】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【生铁】-6\n产出：【陨铁】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【灰钢】-5\n产出：【钨钢】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-3\n产出：【圆木】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【圆木】-3\n产出：【柳木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【蛮皮】-3\n产出：【兽皮】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【青麻】-2\n产出：【绢布】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【柳木】-5\n产出：【樟木】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【圆木】-12\n产出：【天杉木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【柳木】-8\n产出：【祥龙木】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【砥石】-3\n产出：【藏魂石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗资源量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获资源量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,9 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陨铁</t>
-  </si>
-  <si>
     <t>钨钢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,7 +241,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>樟木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>天杉木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蛮皮</t>
@@ -185,240 +297,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>藏魂石</t>
+  </si>
+  <si>
+    <t>黑晶石</t>
+  </si>
+  <si>
     <t>夏目石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀石</t>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1\n产出：【小麦】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【小麦】-2\n产出：【干粮】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【重革】-2\n产出：【绒面革】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-2\n产出：【青麻】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【绢布】-2\n产出：【丝绸】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【丝绸】-3\n产出：【蚕丝布】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【丝绸】-4\n产出：【秀水绫】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樟木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥龙木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-5\n产出：【生铁】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【生铁】-3\n产出：【灰钢】+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【灰钢】-2\n产出：【锰铜】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【生铁】-6\n产出：【陨铁】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【灰钢】-5\n产出：【钨钢】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-3\n产出：【圆木】+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【圆木】-3\n产出：【柳木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-5\n产出：【蛮皮】+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【蛮皮】-3\n产出：【兽皮】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【兽皮】-2\n产出：【轻革】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【兽皮】-3\n产出：【重革】+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【青麻】-2\n产出：【绢布】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【干粮】-4\n产出：【砥石】+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【柳木】-5\n产出：【樟木】+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【圆木】-12\n产出：【天杉木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【柳木】-8\n产出：【祥龙木】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏魂石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【砥石】-3\n产出：【藏魂石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑晶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【藏魂石】-2\n产出：【黑晶3石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【黑晶石】-3\n产出：【夏目石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗：【农夫】-1，【黑晶石】-4\n产出：【孔雀石】+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗资源量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostItemsNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获资源量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardItemsNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-4\n产出：【生铁】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-2\n产出：【蛮皮】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【兽皮】-3\n产出：【轻革】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【干粮】-3\n产出：【砥石】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【藏魂石】-2\n产出：【黑晶石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑晶石】-3\n产出：【孔雀石】+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【黑晶石】-7\n产出：【夏目石】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：【农夫】-1，【轻革】-3\n产出：【重革】+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,13 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,8 +505,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -538,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,19 +531,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -903,10 +888,10 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,10 +900,10 @@
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="29.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="57.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -936,14 +921,14 @@
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>73</v>
+      <c r="E1" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -962,7 +947,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -986,16 +971,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -1008,20 +993,20 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>77</v>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
@@ -1030,148 +1015,148 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>77</v>
+      <c r="D5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>158</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>77</v>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>78</v>
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>77</v>
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>77</v>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>77</v>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1180,460 +1165,460 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>78</v>
+      <c r="C11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13">
-        <v>7</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>77</v>
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="13">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>78</v>
+      <c r="C13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="13">
-        <v>71</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>77</v>
+      <c r="C14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="9">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="9">
         <v>8</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>77</v>
+      <c r="F15" s="9">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>78</v>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>77</v>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>13</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>77</v>
+      <c r="C18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9">
+        <v>14</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>78</v>
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>77</v>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>16</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>77</v>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>77</v>
+      <c r="C22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>77</v>
+      <c r="C23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>19</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>77</v>
+      <c r="C24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="15">
+        <v>19</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>20</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>77</v>
+      <c r="C25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="9">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>78</v>
+      <c r="C26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="8">
+        <v>158</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>22</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>77</v>
+      <c r="C27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="9">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9">
+        <v>23</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>77</v>
+      <c r="D28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>24</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>77</v>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>25</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>77</v>
+      <c r="C30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="9">
+        <v>7</v>
+      </c>
+      <c r="F30" s="9">
+        <v>26</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
